--- a/欣得酒店/智能酒店平台需求整理.xlsx
+++ b/欣得酒店/智能酒店平台需求整理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="20160923智能酒店平台-功能页面" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -380,12 +380,28 @@
     <t>整理需求</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在做</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,8 +517,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +541,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +771,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,20 +819,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,8 +1108,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,22 +1124,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1104,10 +1148,10 @@
       <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1161,9 @@
       <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="66" t="s">
+        <v>86</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1137,7 +1183,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="31"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -1158,8 +1204,10 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="67"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1178,8 +1226,10 @@
         <v>47</v>
       </c>
       <c r="F5" s="31"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="67"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -1196,8 +1246,10 @@
         <v>48</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="67"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -1219,7 +1271,7 @@
         <v>56</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -1237,7 +1289,7 @@
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="65"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -1257,7 +1309,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -1277,7 +1329,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -1295,7 +1347,7 @@
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
@@ -1315,7 +1367,7 @@
         <v>73</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -1333,7 +1385,7 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
@@ -1353,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
@@ -1371,7 +1423,7 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
@@ -1391,7 +1443,7 @@
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -1415,7 +1467,7 @@
       <c r="G17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -1435,7 +1487,7 @@
         <v>68</v>
       </c>
       <c r="G18" s="31"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -1455,7 +1507,7 @@
         <v>77</v>
       </c>
       <c r="G19" s="31"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -1479,7 +1531,7 @@
       <c r="G20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="25"/>
       <c r="J20" s="28"/>
       <c r="K20" s="25"/>
@@ -1503,7 +1555,7 @@
       <c r="G21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="25"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -1519,7 +1571,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="25"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -1535,7 +1587,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -1551,7 +1603,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -1567,7 +1619,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -1583,7 +1635,7 @@
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -1599,7 +1651,7 @@
       <c r="E27" s="23"/>
       <c r="F27" s="22"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -1615,7 +1667,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="22"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -1631,7 +1683,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -1647,7 +1699,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -1663,7 +1715,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -1679,7 +1731,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="37"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -1695,7 +1747,7 @@
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -1711,7 +1763,7 @@
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="67"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -1727,7 +1779,7 @@
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -1743,7 +1795,7 @@
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -1759,7 +1811,7 @@
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
@@ -1775,7 +1827,7 @@
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
@@ -1791,7 +1843,7 @@
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
@@ -1807,7 +1859,7 @@
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -1823,7 +1875,7 @@
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
@@ -1839,7 +1891,7 @@
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
@@ -1855,7 +1907,7 @@
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="H43" s="67"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
@@ -1871,7 +1923,7 @@
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
@@ -1897,7 +1949,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1914,16 +1966,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1955,13 +2007,13 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="53" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="44"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
@@ -1969,11 +2021,11 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
@@ -1981,11 +2033,11 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
@@ -1993,11 +2045,11 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
@@ -2005,11 +2057,11 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
@@ -2017,11 +2069,11 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
@@ -2029,11 +2081,11 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
@@ -2041,11 +2093,11 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
@@ -2053,11 +2105,11 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
@@ -2065,11 +2117,11 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="44"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
@@ -2077,11 +2129,11 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="61"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="61"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
@@ -2089,11 +2141,11 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="61"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
@@ -2101,11 +2153,11 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
@@ -2113,11 +2165,11 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
@@ -2125,11 +2177,11 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="63"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="61"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
@@ -2137,11 +2189,11 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
@@ -2149,11 +2201,11 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
     </row>
@@ -2161,11 +2213,11 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="63"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="61"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
     </row>
@@ -2173,11 +2225,11 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="60"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="61"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
     </row>
@@ -2185,11 +2237,11 @@
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="43"/>
-      <c r="F22" s="61"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
     </row>
@@ -2197,11 +2249,11 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="63"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
@@ -2209,11 +2261,11 @@
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="61"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="61"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="63"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
@@ -2221,9 +2273,9 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="61"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="43"/>
       <c r="F25" s="11"/>
       <c r="G25" s="25"/>
@@ -2233,11 +2285,11 @@
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="60"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="61"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
     </row>
@@ -2245,11 +2297,11 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="61"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="61"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
@@ -2286,14 +2338,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -2302,10 +2354,10 @@
       <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2386,7 @@
       <c r="D3" s="30"/>
       <c r="E3" s="22"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -2356,7 +2408,7 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="52"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -2372,7 +2424,7 @@
       <c r="D5" s="41"/>
       <c r="E5" s="17"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="52"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -2388,7 +2440,7 @@
       <c r="D6" s="41"/>
       <c r="E6" s="17"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -2404,7 +2456,7 @@
       <c r="D7" s="41"/>
       <c r="E7" s="17"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="52"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -2424,7 +2476,7 @@
       <c r="D8" s="31"/>
       <c r="E8" s="19"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -2444,7 +2496,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="19"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="52"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -2464,7 +2516,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="19"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="52"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2484,7 +2536,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="19"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="52"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="28"/>
@@ -2504,7 +2556,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="52"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -2524,7 +2576,7 @@
       <c r="D13" s="23"/>
       <c r="E13" s="19"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="52"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -2542,7 +2594,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="19"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="52"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -2560,7 +2612,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="21"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="52"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -2578,7 +2630,7 @@
       <c r="D16" s="17"/>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="52"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -2596,7 +2648,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -2612,7 +2664,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="53"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -2928,14 +2980,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -2944,10 +2996,10 @@
       <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2966,10 +3018,10 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="54">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="62" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="8"/>
@@ -2980,7 +3032,7 @@
       <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -2990,8 +3042,8 @@
       <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="8"/>
       <c r="D4" s="33" t="s">
         <v>17</v>
@@ -3000,7 +3052,7 @@
       <c r="F4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -3010,15 +3062,15 @@
       <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="8"/>
       <c r="D5" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="52"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -3028,13 +3080,13 @@
       <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="8"/>
       <c r="D6" s="17"/>
       <c r="E6" s="19"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -3044,13 +3096,13 @@
       <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="8"/>
       <c r="D7" s="17"/>
       <c r="E7" s="19"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="52"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -3060,13 +3112,13 @@
       <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="8"/>
       <c r="D8" s="17"/>
       <c r="E8" s="19"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="28"/>
@@ -3076,13 +3128,13 @@
       <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="8"/>
       <c r="D9" s="23"/>
       <c r="E9" s="19"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="52"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -3092,13 +3144,13 @@
       <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="8"/>
       <c r="D10" s="23"/>
       <c r="E10" s="19"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="52"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -3108,13 +3160,13 @@
       <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="8"/>
       <c r="D11" s="24"/>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="52"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -3124,13 +3176,13 @@
       <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="8"/>
       <c r="D12" s="17"/>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="52"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -3140,13 +3192,13 @@
       <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="8"/>
       <c r="D13" s="24"/>
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="52"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -3156,13 +3208,13 @@
       <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="8"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="53"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
